--- a/data_cleaning/datasets_raw/Commcare - POST Connection - COMMERCIAL & INSTITUTION Connectin Impact Survey.xlsx
+++ b/data_cleaning/datasets_raw/Commcare - POST Connection - COMMERCIAL & INSTITUTION Connectin Impact Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\data_cleaning\datasets_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291D1F1C-CB3D-467F-9645-66BAA934AD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DA5DF9-1127-4EB1-87A1-DF58FF5BF351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Forms" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Forms!$A$1:$AK$77</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="763">
   <si>
     <t>Start time</t>
   </si>
@@ -643,9 +646,6 @@
   </si>
   <si>
     <t>i replaced some of my wokers due to mis-management of funs</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>externtion in running hours</t>
@@ -2699,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2725,7 +2725,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2749,7 +2749,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
@@ -2758,19 +2758,19 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
@@ -2779,43 +2779,43 @@
         <v>17</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="AH1" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -4103,31 +4103,28 @@
       <c r="AA17" t="s">
         <v>202</v>
       </c>
-      <c r="AB17" t="s">
-        <v>203</v>
-      </c>
       <c r="AC17" t="s">
         <v>37</v>
       </c>
       <c r="AD17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ17" t="s">
         <v>195</v>
       </c>
       <c r="AK17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
         <v>206</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>207</v>
-      </c>
-      <c r="C18" t="s">
-        <v>208</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -4142,10 +4139,10 @@
         <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
         <v>60</v>
@@ -4154,7 +4151,7 @@
         <v>31</v>
       </c>
       <c r="M18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N18" t="s">
         <v>33</v>
@@ -4163,7 +4160,7 @@
         <v>34</v>
       </c>
       <c r="Q18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S18" t="s">
         <v>36</v>
@@ -4184,7 +4181,7 @@
         <v>26</v>
       </c>
       <c r="Y18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z18" t="s">
         <v>41</v>
@@ -4193,24 +4190,24 @@
         <v>37</v>
       </c>
       <c r="AD18" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>213</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>214</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s">
         <v>216</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>217</v>
-      </c>
-      <c r="C19" t="s">
-        <v>218</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -4225,10 +4222,10 @@
         <v>27</v>
       </c>
       <c r="I19" t="s">
+        <v>218</v>
+      </c>
+      <c r="J19" t="s">
         <v>219</v>
-      </c>
-      <c r="J19" t="s">
-        <v>220</v>
       </c>
       <c r="K19" t="s">
         <v>30</v>
@@ -4237,7 +4234,7 @@
         <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s">
         <v>33</v>
@@ -4255,7 +4252,7 @@
         <v>36</v>
       </c>
       <c r="U19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V19" t="s">
         <v>38</v>
@@ -4273,24 +4270,24 @@
         <v>37</v>
       </c>
       <c r="AD19" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>222</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>223</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" t="s">
         <v>225</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>226</v>
-      </c>
-      <c r="C20" t="s">
-        <v>227</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -4305,10 +4302,10 @@
         <v>27</v>
       </c>
       <c r="I20" t="s">
+        <v>227</v>
+      </c>
+      <c r="J20" t="s">
         <v>228</v>
-      </c>
-      <c r="J20" t="s">
-        <v>229</v>
       </c>
       <c r="K20" t="s">
         <v>30</v>
@@ -4317,7 +4314,7 @@
         <v>31</v>
       </c>
       <c r="M20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s">
         <v>33</v>
@@ -4326,10 +4323,10 @@
         <v>34</v>
       </c>
       <c r="Q20" t="s">
+        <v>230</v>
+      </c>
+      <c r="R20" t="s">
         <v>231</v>
-      </c>
-      <c r="R20" t="s">
-        <v>232</v>
       </c>
       <c r="S20" t="s">
         <v>36</v>
@@ -4350,7 +4347,7 @@
         <v>26</v>
       </c>
       <c r="Y20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z20" t="s">
         <v>41</v>
@@ -4359,24 +4356,24 @@
         <v>39</v>
       </c>
       <c r="AD20" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>234</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>235</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" t="s">
         <v>237</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>238</v>
-      </c>
-      <c r="C21" t="s">
-        <v>239</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -4391,10 +4388,10 @@
         <v>27</v>
       </c>
       <c r="I21" t="s">
+        <v>239</v>
+      </c>
+      <c r="J21" t="s">
         <v>240</v>
-      </c>
-      <c r="J21" t="s">
-        <v>241</v>
       </c>
       <c r="K21" t="s">
         <v>30</v>
@@ -4403,7 +4400,7 @@
         <v>143</v>
       </c>
       <c r="M21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N21" t="s">
         <v>33</v>
@@ -4436,24 +4433,24 @@
         <v>39</v>
       </c>
       <c r="AD21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>243</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>244</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" t="s">
         <v>246</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>247</v>
-      </c>
-      <c r="C22" t="s">
-        <v>248</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -4462,16 +4459,16 @@
         <v>179</v>
       </c>
       <c r="G22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H22" t="s">
         <v>27</v>
       </c>
       <c r="I22" t="s">
+        <v>249</v>
+      </c>
+      <c r="J22" t="s">
         <v>250</v>
-      </c>
-      <c r="J22" t="s">
-        <v>251</v>
       </c>
       <c r="K22" t="s">
         <v>30</v>
@@ -4480,7 +4477,7 @@
         <v>107</v>
       </c>
       <c r="M22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N22" t="s">
         <v>33</v>
@@ -4489,7 +4486,7 @@
         <v>52</v>
       </c>
       <c r="Q22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S22" t="s">
         <v>36</v>
@@ -4507,33 +4504,33 @@
         <v>26</v>
       </c>
       <c r="Y22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z22" t="s">
         <v>41</v>
       </c>
       <c r="AE22" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF22" t="s">
         <v>255</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AJ22" t="s">
         <v>256</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>257</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" t="s">
         <v>259</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>260</v>
-      </c>
-      <c r="C23" t="s">
-        <v>261</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -4548,19 +4545,19 @@
         <v>48</v>
       </c>
       <c r="I23" t="s">
+        <v>261</v>
+      </c>
+      <c r="J23" t="s">
         <v>262</v>
-      </c>
-      <c r="J23" t="s">
-        <v>263</v>
       </c>
       <c r="K23" t="s">
         <v>60</v>
       </c>
       <c r="L23" t="s">
+        <v>263</v>
+      </c>
+      <c r="M23" t="s">
         <v>264</v>
-      </c>
-      <c r="M23" t="s">
-        <v>265</v>
       </c>
       <c r="N23" t="s">
         <v>33</v>
@@ -4569,7 +4566,7 @@
         <v>52</v>
       </c>
       <c r="Q23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S23" t="s">
         <v>36</v>
@@ -4590,30 +4587,30 @@
         <v>41</v>
       </c>
       <c r="AG23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH23" t="s">
         <v>40</v>
       </c>
       <c r="AI23" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>267</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>268</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" t="s">
         <v>270</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>271</v>
-      </c>
-      <c r="C24" t="s">
-        <v>272</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -4628,10 +4625,10 @@
         <v>27</v>
       </c>
       <c r="I24" t="s">
+        <v>272</v>
+      </c>
+      <c r="J24" t="s">
         <v>273</v>
-      </c>
-      <c r="J24" t="s">
-        <v>274</v>
       </c>
       <c r="K24" t="s">
         <v>30</v>
@@ -4640,7 +4637,7 @@
         <v>143</v>
       </c>
       <c r="M24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N24" t="s">
         <v>33</v>
@@ -4649,10 +4646,10 @@
         <v>52</v>
       </c>
       <c r="Q24" t="s">
+        <v>275</v>
+      </c>
+      <c r="R24" t="s">
         <v>276</v>
-      </c>
-      <c r="R24" t="s">
-        <v>277</v>
       </c>
       <c r="S24" t="s">
         <v>36</v>
@@ -4673,21 +4670,21 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK24" t="s">
         <v>278</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" t="s">
         <v>280</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>281</v>
-      </c>
-      <c r="C25" t="s">
-        <v>282</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -4699,10 +4696,10 @@
         <v>26</v>
       </c>
       <c r="I25" t="s">
+        <v>282</v>
+      </c>
+      <c r="J25" t="s">
         <v>283</v>
-      </c>
-      <c r="J25" t="s">
-        <v>284</v>
       </c>
       <c r="K25" t="s">
         <v>30</v>
@@ -4711,7 +4708,7 @@
         <v>143</v>
       </c>
       <c r="M25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N25" t="s">
         <v>33</v>
@@ -4720,7 +4717,7 @@
         <v>52</v>
       </c>
       <c r="Q25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S25" t="s">
         <v>36</v>
@@ -4741,21 +4738,21 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK25" t="s">
         <v>287</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" t="s">
         <v>289</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>290</v>
-      </c>
-      <c r="C26" t="s">
-        <v>291</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -4767,10 +4764,10 @@
         <v>26</v>
       </c>
       <c r="I26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J26" t="s">
         <v>292</v>
-      </c>
-      <c r="J26" t="s">
-        <v>293</v>
       </c>
       <c r="K26" t="s">
         <v>30</v>
@@ -4779,7 +4776,7 @@
         <v>143</v>
       </c>
       <c r="M26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N26" t="s">
         <v>33</v>
@@ -4788,7 +4785,7 @@
         <v>52</v>
       </c>
       <c r="Q26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S26" t="s">
         <v>36</v>
@@ -4809,21 +4806,21 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK26" t="s">
         <v>296</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" t="s">
         <v>298</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>299</v>
-      </c>
-      <c r="C27" t="s">
-        <v>300</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -4835,10 +4832,10 @@
         <v>26</v>
       </c>
       <c r="I27" t="s">
+        <v>300</v>
+      </c>
+      <c r="J27" t="s">
         <v>301</v>
-      </c>
-      <c r="J27" t="s">
-        <v>302</v>
       </c>
       <c r="K27" t="s">
         <v>30</v>
@@ -4847,7 +4844,7 @@
         <v>143</v>
       </c>
       <c r="M27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N27" t="s">
         <v>33</v>
@@ -4859,7 +4856,7 @@
         <v>191</v>
       </c>
       <c r="R27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S27" t="s">
         <v>36</v>
@@ -4877,27 +4874,27 @@
         <v>26</v>
       </c>
       <c r="Y27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Z27" t="s">
         <v>41</v>
       </c>
       <c r="AJ27" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK27" t="s">
         <v>306</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" t="s">
         <v>308</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>309</v>
-      </c>
-      <c r="C28" t="s">
-        <v>310</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -4909,10 +4906,10 @@
         <v>26</v>
       </c>
       <c r="I28" t="s">
+        <v>310</v>
+      </c>
+      <c r="J28" t="s">
         <v>311</v>
-      </c>
-      <c r="J28" t="s">
-        <v>312</v>
       </c>
       <c r="K28" t="s">
         <v>30</v>
@@ -4948,21 +4945,21 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK28" t="s">
         <v>313</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" t="s">
         <v>315</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>316</v>
-      </c>
-      <c r="C29" t="s">
-        <v>317</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -4974,10 +4971,10 @@
         <v>26</v>
       </c>
       <c r="I29" t="s">
+        <v>317</v>
+      </c>
+      <c r="J29" t="s">
         <v>318</v>
-      </c>
-      <c r="J29" t="s">
-        <v>319</v>
       </c>
       <c r="K29" t="s">
         <v>30</v>
@@ -4986,7 +4983,7 @@
         <v>143</v>
       </c>
       <c r="M29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N29" t="s">
         <v>33</v>
@@ -4998,7 +4995,7 @@
         <v>132</v>
       </c>
       <c r="R29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S29" t="s">
         <v>36</v>
@@ -5019,21 +5016,21 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK29" t="s">
         <v>322</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" t="s">
         <v>324</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>325</v>
-      </c>
-      <c r="C30" t="s">
-        <v>326</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -5048,10 +5045,10 @@
         <v>27</v>
       </c>
       <c r="I30" t="s">
+        <v>326</v>
+      </c>
+      <c r="J30" t="s">
         <v>327</v>
-      </c>
-      <c r="J30" t="s">
-        <v>328</v>
       </c>
       <c r="K30" t="s">
         <v>30</v>
@@ -5060,7 +5057,7 @@
         <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N30" t="s">
         <v>33</v>
@@ -5069,7 +5066,7 @@
         <v>34</v>
       </c>
       <c r="Q30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S30" t="s">
         <v>36</v>
@@ -5096,24 +5093,24 @@
         <v>37</v>
       </c>
       <c r="AD30" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>331</v>
       </c>
-      <c r="AJ30" t="s">
+      <c r="AK30" t="s">
         <v>332</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B31" t="s">
         <v>334</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>335</v>
-      </c>
-      <c r="C31" t="s">
-        <v>336</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -5122,16 +5119,16 @@
         <v>179</v>
       </c>
       <c r="G31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H31" t="s">
         <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K31" t="s">
         <v>30</v>
@@ -5149,10 +5146,10 @@
         <v>52</v>
       </c>
       <c r="Q31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S31" t="s">
         <v>36</v>
@@ -5173,7 +5170,7 @@
         <v>26</v>
       </c>
       <c r="Y31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Z31" t="s">
         <v>41</v>
@@ -5182,24 +5179,24 @@
         <v>37</v>
       </c>
       <c r="AD31" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>340</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AK31" t="s">
         <v>341</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" t="s">
         <v>343</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>344</v>
-      </c>
-      <c r="C32" t="s">
-        <v>345</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -5214,7 +5211,7 @@
         <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K32" t="s">
         <v>30</v>
@@ -5232,10 +5229,10 @@
         <v>34</v>
       </c>
       <c r="Q32" t="s">
+        <v>346</v>
+      </c>
+      <c r="R32" t="s">
         <v>347</v>
-      </c>
-      <c r="R32" t="s">
-        <v>348</v>
       </c>
       <c r="S32" t="s">
         <v>36</v>
@@ -5256,7 +5253,7 @@
         <v>26</v>
       </c>
       <c r="Y32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z32" t="s">
         <v>41</v>
@@ -5265,24 +5262,24 @@
         <v>39</v>
       </c>
       <c r="AD32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>349</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AK32" t="s">
         <v>350</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" t="s">
         <v>352</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>353</v>
-      </c>
-      <c r="C33" t="s">
-        <v>354</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -5291,16 +5288,16 @@
         <v>179</v>
       </c>
       <c r="G33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
+        <v>354</v>
+      </c>
+      <c r="I33" t="s">
         <v>355</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>356</v>
-      </c>
-      <c r="J33" t="s">
-        <v>357</v>
       </c>
       <c r="K33" t="s">
         <v>60</v>
@@ -5309,7 +5306,7 @@
         <v>143</v>
       </c>
       <c r="M33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N33" t="s">
         <v>33</v>
@@ -5318,7 +5315,7 @@
         <v>34</v>
       </c>
       <c r="Q33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S33" t="s">
         <v>36</v>
@@ -5339,7 +5336,7 @@
         <v>26</v>
       </c>
       <c r="Y33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z33" t="s">
         <v>41</v>
@@ -5348,24 +5345,24 @@
         <v>37</v>
       </c>
       <c r="AD33" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ33" t="s">
         <v>360</v>
       </c>
-      <c r="AJ33" t="s">
+      <c r="AK33" t="s">
         <v>361</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>362</v>
+      </c>
+      <c r="B34" t="s">
         <v>363</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>364</v>
-      </c>
-      <c r="C34" t="s">
-        <v>365</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -5374,13 +5371,13 @@
         <v>179</v>
       </c>
       <c r="G34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H34" t="s">
         <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K34" t="s">
         <v>30</v>
@@ -5389,7 +5386,7 @@
         <v>143</v>
       </c>
       <c r="M34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N34" t="s">
         <v>33</v>
@@ -5398,7 +5395,7 @@
         <v>34</v>
       </c>
       <c r="Q34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S34" t="s">
         <v>36</v>
@@ -5407,7 +5404,7 @@
         <v>36</v>
       </c>
       <c r="U34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V34" t="s">
         <v>38</v>
@@ -5428,21 +5425,21 @@
         <v>147</v>
       </c>
       <c r="AJ34" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK34" t="s">
         <v>368</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>369</v>
+      </c>
+      <c r="B35" t="s">
         <v>370</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>371</v>
-      </c>
-      <c r="C35" t="s">
-        <v>372</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
@@ -5457,7 +5454,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K35" t="s">
         <v>30</v>
@@ -5466,7 +5463,7 @@
         <v>143</v>
       </c>
       <c r="M35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N35" t="s">
         <v>33</v>
@@ -5475,7 +5472,7 @@
         <v>34</v>
       </c>
       <c r="Q35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S35" t="s">
         <v>36</v>
@@ -5496,7 +5493,7 @@
         <v>26</v>
       </c>
       <c r="Y35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z35" t="s">
         <v>41</v>
@@ -5505,30 +5502,30 @@
         <v>37</v>
       </c>
       <c r="AD35" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>377</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AK35" t="s">
         <v>378</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36" t="s">
         <v>380</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>381</v>
-      </c>
-      <c r="C36" t="s">
-        <v>382</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G36" t="s">
         <v>26</v>
@@ -5537,10 +5534,10 @@
         <v>48</v>
       </c>
       <c r="I36" t="s">
+        <v>383</v>
+      </c>
+      <c r="J36" t="s">
         <v>384</v>
-      </c>
-      <c r="J36" t="s">
-        <v>385</v>
       </c>
       <c r="K36" t="s">
         <v>30</v>
@@ -5549,7 +5546,7 @@
         <v>143</v>
       </c>
       <c r="M36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N36" t="s">
         <v>33</v>
@@ -5561,7 +5558,7 @@
         <v>132</v>
       </c>
       <c r="R36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S36" t="s">
         <v>36</v>
@@ -5582,7 +5579,7 @@
         <v>26</v>
       </c>
       <c r="Y36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z36" t="s">
         <v>41</v>
@@ -5591,36 +5588,36 @@
         <v>39</v>
       </c>
       <c r="AD36" t="s">
+        <v>388</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>389</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AK36" t="s">
         <v>390</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" t="s">
         <v>392</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>393</v>
-      </c>
-      <c r="C37" t="s">
-        <v>394</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G37" t="s">
         <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K37" t="s">
         <v>30</v>
@@ -5629,7 +5626,7 @@
         <v>143</v>
       </c>
       <c r="M37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N37" t="s">
         <v>33</v>
@@ -5641,7 +5638,7 @@
         <v>132</v>
       </c>
       <c r="R37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S37" t="s">
         <v>36</v>
@@ -5665,30 +5662,30 @@
         <v>39</v>
       </c>
       <c r="AD37" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>398</v>
       </c>
-      <c r="AJ37" t="s">
+      <c r="AK37" t="s">
         <v>399</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38" t="s">
         <v>401</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>402</v>
-      </c>
-      <c r="C38" t="s">
-        <v>403</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G38" t="s">
         <v>26</v>
@@ -5697,7 +5694,7 @@
         <v>27</v>
       </c>
       <c r="I38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K38" t="s">
         <v>60</v>
@@ -5706,7 +5703,7 @@
         <v>143</v>
       </c>
       <c r="M38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N38" t="s">
         <v>33</v>
@@ -5739,27 +5736,27 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s">
+        <v>404</v>
+      </c>
+      <c r="AK38" t="s">
         <v>405</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>406</v>
+      </c>
+      <c r="B39" t="s">
         <v>407</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>408</v>
-      </c>
-      <c r="C39" t="s">
-        <v>409</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G39" t="s">
         <v>26</v>
@@ -5768,7 +5765,7 @@
         <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K39" t="s">
         <v>30</v>
@@ -5777,7 +5774,7 @@
         <v>143</v>
       </c>
       <c r="M39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N39" t="s">
         <v>33</v>
@@ -5786,7 +5783,7 @@
         <v>34</v>
       </c>
       <c r="Q39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S39" t="s">
         <v>36</v>
@@ -5810,27 +5807,27 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK39" t="s">
         <v>412</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>413</v>
+      </c>
+      <c r="B40" t="s">
         <v>414</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>415</v>
-      </c>
-      <c r="C40" t="s">
-        <v>416</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
@@ -5839,10 +5836,10 @@
         <v>27</v>
       </c>
       <c r="I40" t="s">
+        <v>416</v>
+      </c>
+      <c r="J40" t="s">
         <v>417</v>
-      </c>
-      <c r="J40" t="s">
-        <v>418</v>
       </c>
       <c r="K40" t="s">
         <v>30</v>
@@ -5851,7 +5848,7 @@
         <v>130</v>
       </c>
       <c r="M40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N40" t="s">
         <v>33</v>
@@ -5860,7 +5857,7 @@
         <v>34</v>
       </c>
       <c r="Q40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="S40" t="s">
         <v>36</v>
@@ -5869,7 +5866,7 @@
         <v>36</v>
       </c>
       <c r="U40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V40" t="s">
         <v>64</v>
@@ -5881,7 +5878,7 @@
         <v>40</v>
       </c>
       <c r="Y40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Z40" t="s">
         <v>41</v>
@@ -5890,30 +5887,30 @@
         <v>37</v>
       </c>
       <c r="AD40" t="s">
+        <v>421</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>422</v>
       </c>
-      <c r="AJ40" t="s">
+      <c r="AK40" t="s">
         <v>423</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B41" t="s">
         <v>425</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>426</v>
-      </c>
-      <c r="C41" t="s">
-        <v>427</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G41" t="s">
         <v>26</v>
@@ -5922,7 +5919,7 @@
         <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K41" t="s">
         <v>30</v>
@@ -5931,7 +5928,7 @@
         <v>31</v>
       </c>
       <c r="M41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N41" t="s">
         <v>33</v>
@@ -5943,7 +5940,7 @@
         <v>76</v>
       </c>
       <c r="R41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S41" t="s">
         <v>36</v>
@@ -5970,30 +5967,30 @@
         <v>37</v>
       </c>
       <c r="AD41" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ41" t="s">
         <v>432</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AK41" t="s">
         <v>433</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>434</v>
+      </c>
+      <c r="B42" t="s">
         <v>435</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>436</v>
-      </c>
-      <c r="C42" t="s">
-        <v>437</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G42" t="s">
         <v>26</v>
@@ -6002,7 +5999,7 @@
         <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K42" t="s">
         <v>30</v>
@@ -6011,7 +6008,7 @@
         <v>143</v>
       </c>
       <c r="M42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N42" t="s">
         <v>33</v>
@@ -6020,7 +6017,7 @@
         <v>34</v>
       </c>
       <c r="Q42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S42" t="s">
         <v>36</v>
@@ -6044,30 +6041,30 @@
         <v>39</v>
       </c>
       <c r="AD42" t="s">
+        <v>440</v>
+      </c>
+      <c r="AJ42" t="s">
         <v>441</v>
       </c>
-      <c r="AJ42" t="s">
+      <c r="AK42" t="s">
         <v>442</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>443</v>
+      </c>
+      <c r="B43" t="s">
         <v>444</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>445</v>
-      </c>
-      <c r="C43" t="s">
-        <v>446</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G43" t="s">
         <v>26</v>
@@ -6076,7 +6073,7 @@
         <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K43" t="s">
         <v>30</v>
@@ -6085,7 +6082,7 @@
         <v>143</v>
       </c>
       <c r="M43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N43" t="s">
         <v>33</v>
@@ -6094,7 +6091,7 @@
         <v>34</v>
       </c>
       <c r="Q43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S43" t="s">
         <v>36</v>
@@ -6118,27 +6115,27 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AK43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>449</v>
+      </c>
+      <c r="B44" t="s">
         <v>450</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>451</v>
-      </c>
-      <c r="C44" t="s">
-        <v>452</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G44" t="s">
         <v>26</v>
@@ -6147,7 +6144,7 @@
         <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K44" t="s">
         <v>30</v>
@@ -6156,7 +6153,7 @@
         <v>143</v>
       </c>
       <c r="M44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N44" t="s">
         <v>33</v>
@@ -6189,27 +6186,27 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>455</v>
+      </c>
+      <c r="B45" t="s">
         <v>456</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>457</v>
-      </c>
-      <c r="C45" t="s">
-        <v>458</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
@@ -6218,7 +6215,7 @@
         <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K45" t="s">
         <v>30</v>
@@ -6227,7 +6224,7 @@
         <v>143</v>
       </c>
       <c r="M45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N45" t="s">
         <v>33</v>
@@ -6260,30 +6257,30 @@
         <v>39</v>
       </c>
       <c r="AD45" t="s">
+        <v>460</v>
+      </c>
+      <c r="AJ45" t="s">
         <v>461</v>
       </c>
-      <c r="AJ45" t="s">
-        <v>462</v>
-      </c>
       <c r="AK45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>462</v>
+      </c>
+      <c r="B46" t="s">
         <v>463</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>464</v>
-      </c>
-      <c r="C46" t="s">
-        <v>465</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G46" t="s">
         <v>26</v>
@@ -6292,16 +6289,16 @@
         <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K46" t="s">
         <v>30</v>
       </c>
       <c r="L46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N46" t="s">
         <v>33</v>
@@ -6331,36 +6328,36 @@
         <v>41</v>
       </c>
       <c r="AG46" t="s">
+        <v>468</v>
+      </c>
+      <c r="AH46" t="s">
         <v>469</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>470</v>
       </c>
       <c r="AI46" t="s">
         <v>111</v>
       </c>
       <c r="AJ46" t="s">
+        <v>470</v>
+      </c>
+      <c r="AK46" t="s">
         <v>471</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>472</v>
+      </c>
+      <c r="B47" t="s">
         <v>473</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>474</v>
-      </c>
-      <c r="C47" t="s">
-        <v>475</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G47" t="s">
         <v>26</v>
@@ -6369,7 +6366,7 @@
         <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K47" t="s">
         <v>30</v>
@@ -6378,7 +6375,7 @@
         <v>143</v>
       </c>
       <c r="M47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N47" t="s">
         <v>33</v>
@@ -6387,7 +6384,7 @@
         <v>34</v>
       </c>
       <c r="Q47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S47" t="s">
         <v>36</v>
@@ -6408,7 +6405,7 @@
         <v>26</v>
       </c>
       <c r="Y47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Z47" t="s">
         <v>41</v>
@@ -6417,30 +6414,30 @@
         <v>39</v>
       </c>
       <c r="AD47" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ47" t="s">
         <v>480</v>
       </c>
-      <c r="AJ47" t="s">
+      <c r="AK47" t="s">
         <v>481</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>482</v>
+      </c>
+      <c r="B48" t="s">
         <v>483</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>484</v>
-      </c>
-      <c r="C48" t="s">
-        <v>485</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G48" t="s">
         <v>26</v>
@@ -6449,10 +6446,10 @@
         <v>27</v>
       </c>
       <c r="I48" t="s">
+        <v>486</v>
+      </c>
+      <c r="J48" t="s">
         <v>487</v>
-      </c>
-      <c r="J48" t="s">
-        <v>488</v>
       </c>
       <c r="K48" t="s">
         <v>30</v>
@@ -6461,7 +6458,7 @@
         <v>107</v>
       </c>
       <c r="M48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N48" t="s">
         <v>33</v>
@@ -6491,30 +6488,30 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s">
+        <v>489</v>
+      </c>
+      <c r="AJ48" t="s">
         <v>490</v>
       </c>
-      <c r="AJ48" t="s">
+      <c r="AK48" t="s">
         <v>491</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>492</v>
+      </c>
+      <c r="B49" t="s">
         <v>493</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>494</v>
-      </c>
-      <c r="C49" t="s">
-        <v>495</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G49" t="s">
         <v>40</v>
@@ -6529,7 +6526,7 @@
         <v>143</v>
       </c>
       <c r="M49" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N49" t="s">
         <v>33</v>
@@ -6538,7 +6535,7 @@
         <v>34</v>
       </c>
       <c r="Q49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S49" t="s">
         <v>36</v>
@@ -6547,7 +6544,7 @@
         <v>36</v>
       </c>
       <c r="U49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X49" t="s">
         <v>40</v>
@@ -6559,30 +6556,30 @@
         <v>39</v>
       </c>
       <c r="AD49" t="s">
+        <v>496</v>
+      </c>
+      <c r="AJ49" t="s">
         <v>497</v>
       </c>
-      <c r="AJ49" t="s">
+      <c r="AK49" t="s">
         <v>498</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>499</v>
+      </c>
+      <c r="B50" t="s">
         <v>500</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>501</v>
-      </c>
-      <c r="C50" t="s">
-        <v>502</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -6591,19 +6588,19 @@
         <v>27</v>
       </c>
       <c r="I50" t="s">
+        <v>502</v>
+      </c>
+      <c r="J50" t="s">
         <v>503</v>
-      </c>
-      <c r="J50" t="s">
-        <v>504</v>
       </c>
       <c r="K50" t="s">
         <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M50" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N50" t="s">
         <v>33</v>
@@ -6630,36 +6627,36 @@
         <v>41</v>
       </c>
       <c r="AG50" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>505</v>
+      </c>
+      <c r="AI50" t="s">
         <v>266</v>
       </c>
-      <c r="AH50" t="s">
+      <c r="AJ50" t="s">
         <v>506</v>
       </c>
-      <c r="AI50" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ50" t="s">
+      <c r="AK50" t="s">
         <v>507</v>
-      </c>
-      <c r="AK50" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>508</v>
+      </c>
+      <c r="B51" t="s">
         <v>509</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>510</v>
-      </c>
-      <c r="C51" t="s">
-        <v>511</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G51" t="s">
         <v>26</v>
@@ -6668,7 +6665,7 @@
         <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K51" t="s">
         <v>60</v>
@@ -6677,7 +6674,7 @@
         <v>143</v>
       </c>
       <c r="M51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N51" t="s">
         <v>33</v>
@@ -6686,10 +6683,10 @@
         <v>34</v>
       </c>
       <c r="Q51" t="s">
+        <v>513</v>
+      </c>
+      <c r="R51" t="s">
         <v>514</v>
-      </c>
-      <c r="R51" t="s">
-        <v>515</v>
       </c>
       <c r="S51" t="s">
         <v>36</v>
@@ -6713,27 +6710,27 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s">
+        <v>515</v>
+      </c>
+      <c r="AK51" t="s">
         <v>516</v>
-      </c>
-      <c r="AK51" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>517</v>
+      </c>
+      <c r="B52" t="s">
         <v>518</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>519</v>
-      </c>
-      <c r="C52" t="s">
-        <v>520</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G52" t="s">
         <v>26</v>
@@ -6742,7 +6739,7 @@
         <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K52" t="s">
         <v>30</v>
@@ -6751,7 +6748,7 @@
         <v>143</v>
       </c>
       <c r="M52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N52" t="s">
         <v>33</v>
@@ -6760,10 +6757,10 @@
         <v>34</v>
       </c>
       <c r="Q52" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="R52" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S52" t="s">
         <v>36</v>
@@ -6787,27 +6784,27 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AK52" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>524</v>
+      </c>
+      <c r="B53" t="s">
         <v>525</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>526</v>
-      </c>
-      <c r="C53" t="s">
-        <v>527</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G53" t="s">
         <v>26</v>
@@ -6819,7 +6816,7 @@
         <v>143</v>
       </c>
       <c r="M53" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N53" t="s">
         <v>33</v>
@@ -6852,30 +6849,30 @@
         <v>39</v>
       </c>
       <c r="AD53" t="s">
+        <v>528</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>515</v>
+      </c>
+      <c r="AK53" t="s">
         <v>529</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>516</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>530</v>
+      </c>
+      <c r="B54" t="s">
         <v>531</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>532</v>
-      </c>
-      <c r="C54" t="s">
-        <v>533</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G54" t="s">
         <v>40</v>
@@ -6884,10 +6881,10 @@
         <v>27</v>
       </c>
       <c r="I54" t="s">
+        <v>533</v>
+      </c>
+      <c r="J54" t="s">
         <v>534</v>
-      </c>
-      <c r="J54" t="s">
-        <v>535</v>
       </c>
       <c r="K54" t="s">
         <v>30</v>
@@ -6908,7 +6905,7 @@
         <v>132</v>
       </c>
       <c r="R54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S54" t="s">
         <v>36</v>
@@ -6932,30 +6929,30 @@
         <v>39</v>
       </c>
       <c r="AD54" t="s">
+        <v>536</v>
+      </c>
+      <c r="AJ54" t="s">
         <v>537</v>
       </c>
-      <c r="AJ54" t="s">
+      <c r="AK54" t="s">
         <v>538</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>539</v>
+      </c>
+      <c r="B55" t="s">
         <v>540</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>541</v>
-      </c>
-      <c r="C55" t="s">
-        <v>542</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
         <v>26</v>
@@ -6964,10 +6961,10 @@
         <v>27</v>
       </c>
       <c r="I55" t="s">
+        <v>542</v>
+      </c>
+      <c r="J55" t="s">
         <v>543</v>
-      </c>
-      <c r="J55" t="s">
-        <v>544</v>
       </c>
       <c r="K55" t="s">
         <v>30</v>
@@ -6976,7 +6973,7 @@
         <v>143</v>
       </c>
       <c r="M55" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N55" t="s">
         <v>33</v>
@@ -6985,10 +6982,10 @@
         <v>34</v>
       </c>
       <c r="Q55" t="s">
+        <v>545</v>
+      </c>
+      <c r="R55" t="s">
         <v>546</v>
-      </c>
-      <c r="R55" t="s">
-        <v>547</v>
       </c>
       <c r="S55" t="s">
         <v>39</v>
@@ -7009,27 +7006,27 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s">
+        <v>547</v>
+      </c>
+      <c r="AK55" t="s">
         <v>548</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>549</v>
+      </c>
+      <c r="B56" t="s">
         <v>550</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>551</v>
-      </c>
-      <c r="C56" t="s">
-        <v>552</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G56" t="s">
         <v>26</v>
@@ -7038,10 +7035,10 @@
         <v>27</v>
       </c>
       <c r="I56" t="s">
+        <v>552</v>
+      </c>
+      <c r="J56" t="s">
         <v>553</v>
-      </c>
-      <c r="J56" t="s">
-        <v>554</v>
       </c>
       <c r="K56" t="s">
         <v>30</v>
@@ -7050,7 +7047,7 @@
         <v>143</v>
       </c>
       <c r="M56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N56" t="s">
         <v>33</v>
@@ -7062,7 +7059,7 @@
         <v>132</v>
       </c>
       <c r="R56" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S56" t="s">
         <v>36</v>
@@ -7083,27 +7080,27 @@
         <v>41</v>
       </c>
       <c r="AJ56" t="s">
+        <v>555</v>
+      </c>
+      <c r="AK56" t="s">
         <v>556</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>557</v>
+      </c>
+      <c r="B57" t="s">
         <v>558</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>559</v>
-      </c>
-      <c r="C57" t="s">
-        <v>560</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
       </c>
       <c r="F57" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G57" t="s">
         <v>26</v>
@@ -7112,10 +7109,10 @@
         <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K57" t="s">
         <v>30</v>
@@ -7124,7 +7121,7 @@
         <v>143</v>
       </c>
       <c r="M57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N57" t="s">
         <v>33</v>
@@ -7133,10 +7130,10 @@
         <v>52</v>
       </c>
       <c r="Q57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S57" t="s">
         <v>36</v>
@@ -7160,27 +7157,27 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s">
+        <v>563</v>
+      </c>
+      <c r="AK57" t="s">
         <v>564</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>565</v>
+      </c>
+      <c r="B58" t="s">
         <v>566</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>567</v>
-      </c>
-      <c r="C58" t="s">
-        <v>568</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G58" t="s">
         <v>26</v>
@@ -7189,7 +7186,7 @@
         <v>27</v>
       </c>
       <c r="I58" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K58" t="s">
         <v>30</v>
@@ -7198,7 +7195,7 @@
         <v>143</v>
       </c>
       <c r="M58" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N58" t="s">
         <v>33</v>
@@ -7210,7 +7207,7 @@
         <v>191</v>
       </c>
       <c r="R58" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="S58" t="s">
         <v>36</v>
@@ -7231,39 +7228,39 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s">
+        <v>570</v>
+      </c>
+      <c r="AK58" t="s">
         <v>571</v>
-      </c>
-      <c r="AK58" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>572</v>
+      </c>
+      <c r="B59" t="s">
         <v>573</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>574</v>
-      </c>
-      <c r="C59" t="s">
-        <v>575</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G59" t="s">
         <v>26</v>
       </c>
       <c r="H59" t="s">
+        <v>576</v>
+      </c>
+      <c r="I59" t="s">
         <v>577</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>578</v>
-      </c>
-      <c r="J59" t="s">
-        <v>579</v>
       </c>
       <c r="K59" t="s">
         <v>30</v>
@@ -7272,7 +7269,7 @@
         <v>31</v>
       </c>
       <c r="M59" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N59" t="s">
         <v>33</v>
@@ -7281,10 +7278,10 @@
         <v>52</v>
       </c>
       <c r="Q59" t="s">
+        <v>580</v>
+      </c>
+      <c r="R59" t="s">
         <v>581</v>
-      </c>
-      <c r="R59" t="s">
-        <v>582</v>
       </c>
       <c r="S59" t="s">
         <v>36</v>
@@ -7305,7 +7302,7 @@
         <v>26</v>
       </c>
       <c r="Y59" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Z59" t="s">
         <v>41</v>
@@ -7314,51 +7311,51 @@
         <v>37</v>
       </c>
       <c r="AD59" t="s">
+        <v>583</v>
+      </c>
+      <c r="AJ59" t="s">
         <v>584</v>
       </c>
-      <c r="AJ59" t="s">
+      <c r="AK59" t="s">
         <v>585</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>586</v>
+      </c>
+      <c r="B60" t="s">
         <v>587</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>588</v>
-      </c>
-      <c r="C60" t="s">
-        <v>589</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G60" t="s">
         <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I60" t="s">
+        <v>589</v>
+      </c>
+      <c r="J60" t="s">
         <v>590</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>591</v>
-      </c>
-      <c r="K60" t="s">
-        <v>592</v>
       </c>
       <c r="L60" t="s">
         <v>31</v>
       </c>
       <c r="M60" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N60" t="s">
         <v>33</v>
@@ -7367,7 +7364,7 @@
         <v>52</v>
       </c>
       <c r="Q60" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S60" t="s">
         <v>36</v>
@@ -7376,7 +7373,7 @@
         <v>36</v>
       </c>
       <c r="U60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W60" t="s">
         <v>65</v>
@@ -7385,7 +7382,7 @@
         <v>26</v>
       </c>
       <c r="Y60" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Z60" t="s">
         <v>41</v>
@@ -7394,30 +7391,30 @@
         <v>39</v>
       </c>
       <c r="AD60" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ60" t="s">
         <v>596</v>
       </c>
-      <c r="AJ60" t="s">
+      <c r="AK60" t="s">
         <v>597</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>598</v>
+      </c>
+      <c r="B61" t="s">
         <v>599</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>600</v>
-      </c>
-      <c r="C61" t="s">
-        <v>601</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G61" t="s">
         <v>26</v>
@@ -7426,13 +7423,13 @@
         <v>27</v>
       </c>
       <c r="I61" t="s">
+        <v>601</v>
+      </c>
+      <c r="J61" t="s">
         <v>602</v>
       </c>
-      <c r="J61" t="s">
-        <v>603</v>
-      </c>
       <c r="K61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L61" t="s">
         <v>31</v>
@@ -7444,7 +7441,7 @@
         <v>155</v>
       </c>
       <c r="O61" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P61" t="s">
         <v>52</v>
@@ -7456,7 +7453,7 @@
         <v>36</v>
       </c>
       <c r="U61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W61" t="s">
         <v>39</v>
@@ -7468,27 +7465,27 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s">
+        <v>604</v>
+      </c>
+      <c r="AK61" t="s">
         <v>605</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>606</v>
+      </c>
+      <c r="B62" t="s">
         <v>607</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>608</v>
-      </c>
-      <c r="C62" t="s">
-        <v>609</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
@@ -7497,10 +7494,10 @@
         <v>27</v>
       </c>
       <c r="I62" t="s">
+        <v>609</v>
+      </c>
+      <c r="J62" t="s">
         <v>610</v>
-      </c>
-      <c r="J62" t="s">
-        <v>611</v>
       </c>
       <c r="K62" t="s">
         <v>30</v>
@@ -7515,10 +7512,10 @@
         <v>33</v>
       </c>
       <c r="P62" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q62" t="s">
         <v>612</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>613</v>
       </c>
       <c r="S62" t="s">
         <v>36</v>
@@ -7536,7 +7533,7 @@
         <v>26</v>
       </c>
       <c r="Y62" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Z62" t="s">
         <v>41</v>
@@ -7545,57 +7542,57 @@
         <v>39</v>
       </c>
       <c r="AD62" t="s">
+        <v>614</v>
+      </c>
+      <c r="AJ62" t="s">
         <v>615</v>
       </c>
-      <c r="AJ62" t="s">
+      <c r="AK62" t="s">
         <v>616</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>617</v>
+      </c>
+      <c r="B63" t="s">
         <v>618</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>619</v>
-      </c>
-      <c r="C63" t="s">
-        <v>620</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G63" t="s">
         <v>26</v>
       </c>
       <c r="H63" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I63" t="s">
+        <v>620</v>
+      </c>
+      <c r="J63" t="s">
         <v>621</v>
       </c>
-      <c r="J63" t="s">
-        <v>622</v>
-      </c>
       <c r="K63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L63" t="s">
         <v>31</v>
       </c>
       <c r="M63" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N63" t="s">
         <v>33</v>
       </c>
       <c r="P63" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="Q63" t="s">
         <v>86</v>
@@ -7619,7 +7616,7 @@
         <v>26</v>
       </c>
       <c r="Y63" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Z63" t="s">
         <v>41</v>
@@ -7628,30 +7625,30 @@
         <v>37</v>
       </c>
       <c r="AD63" t="s">
+        <v>623</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>615</v>
+      </c>
+      <c r="AK63" t="s">
         <v>624</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>616</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>625</v>
+      </c>
+      <c r="B64" t="s">
         <v>626</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>627</v>
-      </c>
-      <c r="C64" t="s">
-        <v>628</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G64" t="s">
         <v>26</v>
@@ -7660,10 +7657,10 @@
         <v>27</v>
       </c>
       <c r="I64" t="s">
+        <v>628</v>
+      </c>
+      <c r="J64" t="s">
         <v>629</v>
-      </c>
-      <c r="J64" t="s">
-        <v>630</v>
       </c>
       <c r="K64" t="s">
         <v>30</v>
@@ -7672,16 +7669,16 @@
         <v>31</v>
       </c>
       <c r="M64" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N64" t="s">
         <v>33</v>
       </c>
       <c r="Q64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R64" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S64" t="s">
         <v>36</v>
@@ -7699,13 +7696,13 @@
         <v>26</v>
       </c>
       <c r="Y64" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Z64" t="s">
         <v>120</v>
       </c>
       <c r="AA64" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AB64" t="s">
         <v>89</v>
@@ -7714,30 +7711,30 @@
         <v>37</v>
       </c>
       <c r="AD64" t="s">
+        <v>634</v>
+      </c>
+      <c r="AJ64" t="s">
         <v>635</v>
       </c>
-      <c r="AJ64" t="s">
+      <c r="AK64" t="s">
         <v>636</v>
-      </c>
-      <c r="AK64" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>637</v>
+      </c>
+      <c r="B65" t="s">
         <v>638</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>639</v>
-      </c>
-      <c r="C65" t="s">
-        <v>640</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G65" t="s">
         <v>26</v>
@@ -7746,7 +7743,7 @@
         <v>27</v>
       </c>
       <c r="I65" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K65" t="s">
         <v>30</v>
@@ -7755,19 +7752,19 @@
         <v>143</v>
       </c>
       <c r="M65" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N65" t="s">
         <v>33</v>
       </c>
       <c r="P65" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="Q65" t="s">
         <v>191</v>
       </c>
       <c r="R65" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S65" t="s">
         <v>36</v>
@@ -7785,7 +7782,7 @@
         <v>26</v>
       </c>
       <c r="Y65" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Z65" t="s">
         <v>41</v>
@@ -7794,30 +7791,30 @@
         <v>39</v>
       </c>
       <c r="AD65" t="s">
+        <v>644</v>
+      </c>
+      <c r="AJ65" t="s">
         <v>645</v>
       </c>
-      <c r="AJ65" t="s">
+      <c r="AK65" t="s">
         <v>646</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>647</v>
+      </c>
+      <c r="B66" t="s">
         <v>648</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>649</v>
-      </c>
-      <c r="C66" t="s">
-        <v>650</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G66" t="s">
         <v>26</v>
@@ -7826,7 +7823,7 @@
         <v>27</v>
       </c>
       <c r="I66" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K66" t="s">
         <v>30</v>
@@ -7835,13 +7832,13 @@
         <v>143</v>
       </c>
       <c r="M66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N66" t="s">
         <v>33</v>
       </c>
       <c r="P66" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="Q66" t="s">
         <v>157</v>
@@ -7868,27 +7865,27 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s">
+        <v>652</v>
+      </c>
+      <c r="AK66" t="s">
         <v>653</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>654</v>
+      </c>
+      <c r="B67" t="s">
         <v>655</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>656</v>
-      </c>
-      <c r="C67" t="s">
-        <v>657</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G67" t="s">
         <v>26</v>
@@ -7897,7 +7894,7 @@
         <v>27</v>
       </c>
       <c r="I67" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K67" t="s">
         <v>30</v>
@@ -7906,13 +7903,13 @@
         <v>130</v>
       </c>
       <c r="M67" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N67" t="s">
         <v>33</v>
       </c>
       <c r="O67" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P67" t="s">
         <v>52</v>
@@ -7942,51 +7939,51 @@
         <v>39</v>
       </c>
       <c r="AD67" t="s">
+        <v>660</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>645</v>
+      </c>
+      <c r="AK67" t="s">
         <v>661</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>646</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>662</v>
+      </c>
+      <c r="B68" t="s">
         <v>663</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>664</v>
-      </c>
-      <c r="C68" t="s">
-        <v>665</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G68" t="s">
         <v>40</v>
       </c>
       <c r="H68" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I68" t="s">
+        <v>665</v>
+      </c>
+      <c r="J68" t="s">
         <v>666</v>
       </c>
-      <c r="J68" t="s">
-        <v>667</v>
-      </c>
       <c r="K68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L68" t="s">
         <v>130</v>
       </c>
       <c r="M68" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N68" t="s">
         <v>33</v>
@@ -7995,7 +7992,7 @@
         <v>52</v>
       </c>
       <c r="Q68" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S68" t="s">
         <v>36</v>
@@ -8013,60 +8010,60 @@
         <v>40</v>
       </c>
       <c r="AA68" t="s">
+        <v>668</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH68" t="s">
         <v>669</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>266</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>670</v>
       </c>
       <c r="AI68" t="s">
         <v>111</v>
       </c>
       <c r="AJ68" t="s">
+        <v>670</v>
+      </c>
+      <c r="AK68" t="s">
         <v>671</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>672</v>
+      </c>
+      <c r="B69" t="s">
         <v>673</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>674</v>
-      </c>
-      <c r="C69" t="s">
-        <v>675</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G69" t="s">
         <v>26</v>
       </c>
       <c r="H69" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I69" t="s">
+        <v>675</v>
+      </c>
+      <c r="J69" t="s">
         <v>676</v>
       </c>
-      <c r="J69" t="s">
-        <v>677</v>
-      </c>
       <c r="K69" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L69" t="s">
         <v>130</v>
       </c>
       <c r="M69" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N69" t="s">
         <v>33</v>
@@ -8075,7 +8072,7 @@
         <v>52</v>
       </c>
       <c r="Q69" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S69" t="s">
         <v>36</v>
@@ -8093,57 +8090,57 @@
         <v>40</v>
       </c>
       <c r="AA69" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AG69" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI69" t="s">
         <v>111</v>
       </c>
       <c r="AJ69" t="s">
+        <v>677</v>
+      </c>
+      <c r="AK69" t="s">
         <v>678</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>679</v>
+      </c>
+      <c r="B70" t="s">
         <v>680</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>681</v>
-      </c>
-      <c r="C70" t="s">
-        <v>682</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G70" t="s">
         <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I70" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J70" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K70" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L70" t="s">
         <v>107</v>
       </c>
       <c r="M70" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N70" t="s">
         <v>33</v>
@@ -8152,10 +8149,10 @@
         <v>34</v>
       </c>
       <c r="Q70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R70" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S70" t="s">
         <v>36</v>
@@ -8176,51 +8173,51 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ70" t="s">
+        <v>685</v>
+      </c>
+      <c r="AK70" t="s">
         <v>686</v>
-      </c>
-      <c r="AK70" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>687</v>
+      </c>
+      <c r="B71" t="s">
         <v>688</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>689</v>
-      </c>
-      <c r="C71" t="s">
-        <v>690</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
       </c>
       <c r="F71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
       </c>
       <c r="H71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I71" t="s">
+        <v>690</v>
+      </c>
+      <c r="J71" t="s">
         <v>691</v>
       </c>
-      <c r="J71" t="s">
-        <v>692</v>
-      </c>
       <c r="K71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L71" t="s">
         <v>143</v>
       </c>
       <c r="M71" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N71" t="s">
         <v>33</v>
@@ -8232,7 +8229,7 @@
         <v>132</v>
       </c>
       <c r="R71" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="S71" t="s">
         <v>39</v>
@@ -8253,48 +8250,48 @@
         <v>41</v>
       </c>
       <c r="AJ71" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AK71" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>695</v>
+      </c>
+      <c r="B72" t="s">
         <v>696</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>697</v>
-      </c>
-      <c r="C72" t="s">
-        <v>698</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
       </c>
       <c r="F72" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G72" t="s">
         <v>26</v>
       </c>
       <c r="H72" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I72" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J72" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K72" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L72" t="s">
         <v>143</v>
       </c>
       <c r="M72" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N72" t="s">
         <v>33</v>
@@ -8306,7 +8303,7 @@
         <v>132</v>
       </c>
       <c r="R72" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="S72" t="s">
         <v>39</v>
@@ -8327,48 +8324,48 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s">
+        <v>701</v>
+      </c>
+      <c r="AK72" t="s">
         <v>702</v>
-      </c>
-      <c r="AK72" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>703</v>
+      </c>
+      <c r="B73" t="s">
         <v>704</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>705</v>
-      </c>
-      <c r="C73" t="s">
-        <v>706</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G73" t="s">
         <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I73" t="s">
+        <v>706</v>
+      </c>
+      <c r="J73" t="s">
         <v>707</v>
       </c>
-      <c r="J73" t="s">
-        <v>708</v>
-      </c>
       <c r="K73" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L73" t="s">
         <v>31</v>
       </c>
       <c r="M73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N73" t="s">
         <v>33</v>
@@ -8377,7 +8374,7 @@
         <v>52</v>
       </c>
       <c r="Q73" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S73" t="s">
         <v>39</v>
@@ -8404,51 +8401,51 @@
         <v>37</v>
       </c>
       <c r="AD73" t="s">
+        <v>708</v>
+      </c>
+      <c r="AJ73" t="s">
         <v>709</v>
       </c>
-      <c r="AJ73" t="s">
+      <c r="AK73" t="s">
         <v>710</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>711</v>
+      </c>
+      <c r="B74" t="s">
         <v>712</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>713</v>
-      </c>
-      <c r="C74" t="s">
-        <v>714</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G74" t="s">
         <v>26</v>
       </c>
       <c r="H74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I74" t="s">
+        <v>714</v>
+      </c>
+      <c r="J74" t="s">
         <v>715</v>
       </c>
-      <c r="J74" t="s">
-        <v>716</v>
-      </c>
       <c r="K74" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L74" t="s">
         <v>31</v>
       </c>
       <c r="M74" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N74" t="s">
         <v>33</v>
@@ -8457,7 +8454,7 @@
         <v>34</v>
       </c>
       <c r="Q74" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="S74" t="s">
         <v>39</v>
@@ -8484,51 +8481,51 @@
         <v>37</v>
       </c>
       <c r="AD74" t="s">
+        <v>718</v>
+      </c>
+      <c r="AJ74" t="s">
         <v>719</v>
       </c>
-      <c r="AJ74" t="s">
+      <c r="AK74" t="s">
         <v>720</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>721</v>
+      </c>
+      <c r="B75" t="s">
         <v>722</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>723</v>
-      </c>
-      <c r="C75" t="s">
-        <v>724</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G75" t="s">
         <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I75" t="s">
+        <v>724</v>
+      </c>
+      <c r="J75" t="s">
         <v>725</v>
       </c>
-      <c r="J75" t="s">
-        <v>726</v>
-      </c>
       <c r="K75" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L75" t="s">
         <v>31</v>
       </c>
       <c r="M75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N75" t="s">
         <v>33</v>
@@ -8537,7 +8534,7 @@
         <v>52</v>
       </c>
       <c r="Q75" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="S75" t="s">
         <v>39</v>
@@ -8564,51 +8561,51 @@
         <v>39</v>
       </c>
       <c r="AD75" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AJ75" t="s">
+        <v>727</v>
+      </c>
+      <c r="AK75" t="s">
         <v>728</v>
-      </c>
-      <c r="AK75" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>729</v>
+      </c>
+      <c r="B76" t="s">
         <v>730</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>731</v>
-      </c>
-      <c r="C76" t="s">
-        <v>732</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G76" t="s">
         <v>26</v>
       </c>
       <c r="H76" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I76" t="s">
+        <v>732</v>
+      </c>
+      <c r="J76" t="s">
         <v>733</v>
       </c>
-      <c r="J76" t="s">
-        <v>734</v>
-      </c>
       <c r="K76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L76" t="s">
         <v>31</v>
       </c>
       <c r="M76" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="N76" t="s">
         <v>33</v>
@@ -8617,7 +8614,7 @@
         <v>52</v>
       </c>
       <c r="Q76" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S76" t="s">
         <v>39</v>
@@ -8647,48 +8644,48 @@
         <v>67</v>
       </c>
       <c r="AJ76" t="s">
+        <v>735</v>
+      </c>
+      <c r="AK76" t="s">
         <v>736</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>737</v>
+      </c>
+      <c r="B77" t="s">
         <v>738</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>739</v>
-      </c>
-      <c r="C77" t="s">
-        <v>740</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G77" t="s">
         <v>26</v>
       </c>
       <c r="H77" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I77" t="s">
+        <v>740</v>
+      </c>
+      <c r="J77" t="s">
         <v>741</v>
       </c>
-      <c r="J77" t="s">
-        <v>742</v>
-      </c>
       <c r="K77" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L77" t="s">
         <v>31</v>
       </c>
       <c r="M77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N77" t="s">
         <v>33</v>
@@ -8724,16 +8721,17 @@
         <v>39</v>
       </c>
       <c r="AD77" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ77" t="s">
         <v>743</v>
       </c>
-      <c r="AJ77" t="s">
+      <c r="AK77" t="s">
         <v>744</v>
-      </c>
-      <c r="AK77" t="s">
-        <v>745</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AK77" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8750,19 +8748,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D2" t="s">
         <v>746</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>754</v>
       </c>
-      <c r="D2" t="s">
-        <v>747</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>755</v>
-      </c>
-      <c r="F2" t="s">
-        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -8780,17 +8778,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="996edba2-ec33-4a2e-8368-78d9e900b9f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5210dd66-3e32-4fad-90ef-2e158a04e990" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038073657E5DB2D47AAD91621692220EF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="afb3daf45c20648a38b84a160d60719d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="996edba2-ec33-4a2e-8368-78d9e900b9f2" xmlns:ns3="5210dd66-3e32-4fad-90ef-2e158a04e990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b6a9de8e624e0e032ad798c972482c2" ns2:_="" ns3:_="">
     <xsd:import namespace="996edba2-ec33-4a2e-8368-78d9e900b9f2"/>
@@ -9013,6 +9000,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="996edba2-ec33-4a2e-8368-78d9e900b9f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5210dd66-3e32-4fad-90ef-2e158a04e990" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7706BB81-98AA-4FB4-8C99-0F6A8FF3C263}">
   <ds:schemaRefs>
@@ -9022,17 +9020,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2891B0B-F162-4729-8896-17DE61CC0D42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="996edba2-ec33-4a2e-8368-78d9e900b9f2"/>
-    <ds:schemaRef ds:uri="5210dd66-3e32-4fad-90ef-2e158a04e990"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D56BCDA-5D9F-41BC-B157-7CD255220F5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9049,4 +9036,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2891B0B-F162-4729-8896-17DE61CC0D42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="996edba2-ec33-4a2e-8368-78d9e900b9f2"/>
+    <ds:schemaRef ds:uri="5210dd66-3e32-4fad-90ef-2e158a04e990"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data_cleaning/datasets_raw/Commcare - POST Connection - COMMERCIAL & INSTITUTION Connectin Impact Survey.xlsx
+++ b/data_cleaning/datasets_raw/Commcare - POST Connection - COMMERCIAL & INSTITUTION Connectin Impact Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aorsot\Renewvia\survey_impact_analysis\data_cleaning\datasets_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DA5DF9-1127-4EB1-87A1-DF58FF5BF351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C4AB78-6B8A-4137-8CB7-67DC419BEB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="760">
   <si>
     <t>Start time</t>
   </si>
@@ -780,9 +780,6 @@
     <t>2023-02-07 11:47:14</t>
   </si>
   <si>
-    <t>530131</t>
-  </si>
-  <si>
     <t>not_sure</t>
   </si>
   <si>
@@ -817,9 +814,6 @@
   </si>
   <si>
     <t>2023-02-07 14:03:10</t>
-  </si>
-  <si>
-    <t>53023</t>
   </si>
   <si>
     <t>Eno</t>
@@ -1134,9 +1128,6 @@
   </si>
   <si>
     <t>2023-02-08 15:08:47</t>
-  </si>
-  <si>
-    <t>53252</t>
   </si>
   <si>
     <t>Redeem</t>
@@ -2364,7 +2355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2375,6 +2366,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2390,10 +2387,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2699,11 +2706,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.7265625" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -2712,7 +2722,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2725,7 +2735,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2749,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
@@ -2758,19 +2768,19 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
@@ -2779,43 +2789,43 @@
         <v>17</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -2825,7 +2835,7 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
@@ -2905,7 +2915,7 @@
       <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D3" t="s">
@@ -2979,7 +2989,7 @@
       <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D4" t="s">
@@ -3059,7 +3069,7 @@
       <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D5" t="s">
@@ -3139,7 +3149,7 @@
       <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D6" t="s">
@@ -3225,7 +3235,7 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D7" t="s">
@@ -3305,7 +3315,7 @@
       <c r="B8" t="s">
         <v>103</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D8" t="s">
@@ -3388,7 +3398,7 @@
       <c r="B9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D9" t="s">
@@ -3480,7 +3490,7 @@
       <c r="B10" t="s">
         <v>126</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D10" t="s">
@@ -3566,7 +3576,7 @@
       <c r="B11" t="s">
         <v>139</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D11" t="s">
@@ -3649,7 +3659,7 @@
       <c r="B12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>152</v>
       </c>
       <c r="D12" t="s">
@@ -3729,7 +3739,7 @@
       <c r="B13" t="s">
         <v>162</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D13" t="s">
@@ -3800,7 +3810,7 @@
       <c r="B14" t="s">
         <v>169</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D14" t="s">
@@ -3871,7 +3881,7 @@
       <c r="B15" t="s">
         <v>177</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D15" t="s">
@@ -3951,7 +3961,7 @@
       <c r="B16" t="s">
         <v>187</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D16" t="s">
@@ -4040,7 +4050,7 @@
       <c r="B17" t="s">
         <v>198</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D17" t="s">
@@ -4123,7 +4133,7 @@
       <c r="B18" t="s">
         <v>206</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D18" t="s">
@@ -4206,7 +4216,7 @@
       <c r="B19" t="s">
         <v>216</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D19" t="s">
@@ -4286,7 +4296,7 @@
       <c r="B20" t="s">
         <v>225</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D20" t="s">
@@ -4372,7 +4382,7 @@
       <c r="B21" t="s">
         <v>237</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D21" t="s">
@@ -4449,8 +4459,8 @@
       <c r="B22" t="s">
         <v>246</v>
       </c>
-      <c r="C22" t="s">
-        <v>247</v>
+      <c r="C22" s="4">
+        <v>530131</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -4459,16 +4469,16 @@
         <v>179</v>
       </c>
       <c r="G22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H22" t="s">
         <v>27</v>
       </c>
       <c r="I22" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" t="s">
         <v>249</v>
-      </c>
-      <c r="J22" t="s">
-        <v>250</v>
       </c>
       <c r="K22" t="s">
         <v>30</v>
@@ -4477,7 +4487,7 @@
         <v>107</v>
       </c>
       <c r="M22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N22" t="s">
         <v>33</v>
@@ -4486,7 +4496,7 @@
         <v>52</v>
       </c>
       <c r="Q22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S22" t="s">
         <v>36</v>
@@ -4504,33 +4514,33 @@
         <v>26</v>
       </c>
       <c r="Y22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z22" t="s">
         <v>41</v>
       </c>
       <c r="AE22" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF22" t="s">
         <v>254</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AJ22" t="s">
         <v>255</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>256</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" t="s">
         <v>258</v>
       </c>
-      <c r="B23" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" t="s">
-        <v>260</v>
+      <c r="C23" s="4">
+        <v>530323</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -4545,19 +4555,19 @@
         <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K23" t="s">
         <v>60</v>
       </c>
       <c r="L23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N23" t="s">
         <v>33</v>
@@ -4587,30 +4597,30 @@
         <v>41</v>
       </c>
       <c r="AG23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AH23" t="s">
         <v>40</v>
       </c>
       <c r="AI23" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK23" t="s">
         <v>266</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>267</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="B24" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" t="s">
-        <v>271</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -4625,10 +4635,10 @@
         <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K24" t="s">
         <v>30</v>
@@ -4637,7 +4647,7 @@
         <v>143</v>
       </c>
       <c r="M24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N24" t="s">
         <v>33</v>
@@ -4646,10 +4656,10 @@
         <v>52</v>
       </c>
       <c r="Q24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S24" t="s">
         <v>36</v>
@@ -4670,21 +4680,21 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AK24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="B25" t="s">
-        <v>280</v>
-      </c>
-      <c r="C25" t="s">
-        <v>281</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -4696,10 +4706,10 @@
         <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K25" t="s">
         <v>30</v>
@@ -4708,7 +4718,7 @@
         <v>143</v>
       </c>
       <c r="M25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N25" t="s">
         <v>33</v>
@@ -4717,7 +4727,7 @@
         <v>52</v>
       </c>
       <c r="Q25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S25" t="s">
         <v>36</v>
@@ -4738,21 +4748,21 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AK25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="B26" t="s">
-        <v>289</v>
-      </c>
-      <c r="C26" t="s">
-        <v>290</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -4764,10 +4774,10 @@
         <v>26</v>
       </c>
       <c r="I26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K26" t="s">
         <v>30</v>
@@ -4776,7 +4786,7 @@
         <v>143</v>
       </c>
       <c r="M26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N26" t="s">
         <v>33</v>
@@ -4785,7 +4795,7 @@
         <v>52</v>
       </c>
       <c r="Q26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S26" t="s">
         <v>36</v>
@@ -4806,21 +4816,21 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AK26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B27" t="s">
-        <v>298</v>
-      </c>
-      <c r="C27" t="s">
-        <v>299</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -4832,10 +4842,10 @@
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K27" t="s">
         <v>30</v>
@@ -4844,7 +4854,7 @@
         <v>143</v>
       </c>
       <c r="M27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N27" t="s">
         <v>33</v>
@@ -4856,7 +4866,7 @@
         <v>191</v>
       </c>
       <c r="R27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S27" t="s">
         <v>36</v>
@@ -4874,27 +4884,27 @@
         <v>26</v>
       </c>
       <c r="Y27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Z27" t="s">
         <v>41</v>
       </c>
       <c r="AJ27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AK27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="B28" t="s">
-        <v>308</v>
-      </c>
-      <c r="C28" t="s">
-        <v>309</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -4906,10 +4916,10 @@
         <v>26</v>
       </c>
       <c r="I28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K28" t="s">
         <v>30</v>
@@ -4945,21 +4955,21 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AK28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="B29" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" t="s">
-        <v>316</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -4971,10 +4981,10 @@
         <v>26</v>
       </c>
       <c r="I29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K29" t="s">
         <v>30</v>
@@ -4983,7 +4993,7 @@
         <v>143</v>
       </c>
       <c r="M29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N29" t="s">
         <v>33</v>
@@ -4995,7 +5005,7 @@
         <v>132</v>
       </c>
       <c r="R29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S29" t="s">
         <v>36</v>
@@ -5016,21 +5026,21 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AK29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="B30" t="s">
-        <v>324</v>
-      </c>
-      <c r="C30" t="s">
-        <v>325</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -5045,10 +5055,10 @@
         <v>27</v>
       </c>
       <c r="I30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K30" t="s">
         <v>30</v>
@@ -5057,7 +5067,7 @@
         <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N30" t="s">
         <v>33</v>
@@ -5066,7 +5076,7 @@
         <v>34</v>
       </c>
       <c r="Q30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S30" t="s">
         <v>36</v>
@@ -5093,110 +5103,110 @@
         <v>37</v>
       </c>
       <c r="AD30" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK30" t="s">
         <v>330</v>
       </c>
-      <c r="AJ30" t="s">
+    </row>
+    <row r="31" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="B31" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="C31" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C31" t="s">
+      <c r="K31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" t="s">
-        <v>248</v>
-      </c>
-      <c r="H31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" t="s">
-        <v>291</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="S31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y31" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="K31" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" t="s">
-        <v>85</v>
-      </c>
-      <c r="N31" t="s">
-        <v>33</v>
-      </c>
-      <c r="P31" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>275</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="Z31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD31" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="S31" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31" t="s">
-        <v>36</v>
-      </c>
-      <c r="U31" t="s">
-        <v>37</v>
-      </c>
-      <c r="V31" t="s">
-        <v>64</v>
-      </c>
-      <c r="W31" t="s">
-        <v>39</v>
-      </c>
-      <c r="X31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y31" t="s">
+      <c r="AJ31" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="Z31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD31" t="s">
+      <c r="AK31" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>340</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B32" t="s">
-        <v>343</v>
-      </c>
-      <c r="C32" t="s">
-        <v>344</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -5211,7 +5221,7 @@
         <v>62</v>
       </c>
       <c r="J32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K32" t="s">
         <v>30</v>
@@ -5229,10 +5239,10 @@
         <v>34</v>
       </c>
       <c r="Q32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S32" t="s">
         <v>36</v>
@@ -5253,7 +5263,7 @@
         <v>26</v>
       </c>
       <c r="Y32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Z32" t="s">
         <v>41</v>
@@ -5262,24 +5272,24 @@
         <v>39</v>
       </c>
       <c r="AD32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK32" t="s">
         <v>348</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>349</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="B33" t="s">
-        <v>352</v>
-      </c>
-      <c r="C33" t="s">
-        <v>353</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -5288,16 +5298,16 @@
         <v>179</v>
       </c>
       <c r="G33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H33" t="s">
+        <v>352</v>
+      </c>
+      <c r="I33" t="s">
+        <v>353</v>
+      </c>
+      <c r="J33" t="s">
         <v>354</v>
-      </c>
-      <c r="I33" t="s">
-        <v>355</v>
-      </c>
-      <c r="J33" t="s">
-        <v>356</v>
       </c>
       <c r="K33" t="s">
         <v>60</v>
@@ -5306,7 +5316,7 @@
         <v>143</v>
       </c>
       <c r="M33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N33" t="s">
         <v>33</v>
@@ -5315,7 +5325,7 @@
         <v>34</v>
       </c>
       <c r="Q33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S33" t="s">
         <v>36</v>
@@ -5336,7 +5346,7 @@
         <v>26</v>
       </c>
       <c r="Y33" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Z33" t="s">
         <v>41</v>
@@ -5345,24 +5355,24 @@
         <v>37</v>
       </c>
       <c r="AD33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK33" t="s">
         <v>359</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>360</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B34" t="s">
-        <v>363</v>
-      </c>
-      <c r="C34" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="C34" s="4">
+        <v>530252</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -5371,13 +5381,13 @@
         <v>179</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H34" t="s">
         <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K34" t="s">
         <v>30</v>
@@ -5386,7 +5396,7 @@
         <v>143</v>
       </c>
       <c r="M34" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N34" t="s">
         <v>33</v>
@@ -5395,7 +5405,7 @@
         <v>34</v>
       </c>
       <c r="Q34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S34" t="s">
         <v>36</v>
@@ -5425,21 +5435,21 @@
         <v>147</v>
       </c>
       <c r="AJ34" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AK34" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B35" t="s">
-        <v>370</v>
-      </c>
-      <c r="C35" t="s">
-        <v>371</v>
+        <v>367</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
@@ -5454,7 +5464,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K35" t="s">
         <v>30</v>
@@ -5463,7 +5473,7 @@
         <v>143</v>
       </c>
       <c r="M35" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N35" t="s">
         <v>33</v>
@@ -5472,7 +5482,7 @@
         <v>34</v>
       </c>
       <c r="Q35" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="S35" t="s">
         <v>36</v>
@@ -5493,7 +5503,7 @@
         <v>26</v>
       </c>
       <c r="Y35" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Z35" t="s">
         <v>41</v>
@@ -5502,30 +5512,30 @@
         <v>37</v>
       </c>
       <c r="AD35" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AJ35" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AK35" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B36" t="s">
-        <v>380</v>
-      </c>
-      <c r="C36" t="s">
-        <v>381</v>
+        <v>377</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G36" t="s">
         <v>26</v>
@@ -5534,10 +5544,10 @@
         <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J36" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K36" t="s">
         <v>30</v>
@@ -5546,7 +5556,7 @@
         <v>143</v>
       </c>
       <c r="M36" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N36" t="s">
         <v>33</v>
@@ -5558,7 +5568,7 @@
         <v>132</v>
       </c>
       <c r="R36" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S36" t="s">
         <v>36</v>
@@ -5579,7 +5589,7 @@
         <v>26</v>
       </c>
       <c r="Y36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Z36" t="s">
         <v>41</v>
@@ -5588,36 +5598,36 @@
         <v>39</v>
       </c>
       <c r="AD36" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AJ36" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AK36" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B37" t="s">
-        <v>392</v>
-      </c>
-      <c r="C37" t="s">
-        <v>393</v>
+        <v>389</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G37" t="s">
         <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K37" t="s">
         <v>30</v>
@@ -5626,7 +5636,7 @@
         <v>143</v>
       </c>
       <c r="M37" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N37" t="s">
         <v>33</v>
@@ -5638,7 +5648,7 @@
         <v>132</v>
       </c>
       <c r="R37" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="S37" t="s">
         <v>36</v>
@@ -5662,30 +5672,30 @@
         <v>39</v>
       </c>
       <c r="AD37" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AJ37" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AK37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B38" t="s">
-        <v>401</v>
-      </c>
-      <c r="C38" t="s">
-        <v>402</v>
+        <v>398</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G38" t="s">
         <v>26</v>
@@ -5694,7 +5704,7 @@
         <v>27</v>
       </c>
       <c r="I38" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K38" t="s">
         <v>60</v>
@@ -5703,7 +5713,7 @@
         <v>143</v>
       </c>
       <c r="M38" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N38" t="s">
         <v>33</v>
@@ -5736,27 +5746,27 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AK38" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B39" t="s">
-        <v>407</v>
-      </c>
-      <c r="C39" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G39" t="s">
         <v>26</v>
@@ -5765,7 +5775,7 @@
         <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K39" t="s">
         <v>30</v>
@@ -5774,7 +5784,7 @@
         <v>143</v>
       </c>
       <c r="M39" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N39" t="s">
         <v>33</v>
@@ -5783,7 +5793,7 @@
         <v>34</v>
       </c>
       <c r="Q39" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S39" t="s">
         <v>36</v>
@@ -5807,27 +5817,27 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AK39" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B40" t="s">
-        <v>414</v>
-      </c>
-      <c r="C40" t="s">
-        <v>415</v>
+        <v>411</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
@@ -5836,10 +5846,10 @@
         <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J40" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K40" t="s">
         <v>30</v>
@@ -5848,7 +5858,7 @@
         <v>130</v>
       </c>
       <c r="M40" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N40" t="s">
         <v>33</v>
@@ -5857,7 +5867,7 @@
         <v>34</v>
       </c>
       <c r="Q40" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="S40" t="s">
         <v>36</v>
@@ -5878,7 +5888,7 @@
         <v>40</v>
       </c>
       <c r="Y40" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Z40" t="s">
         <v>41</v>
@@ -5887,30 +5897,30 @@
         <v>37</v>
       </c>
       <c r="AD40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ40" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AK40" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B41" t="s">
-        <v>425</v>
-      </c>
-      <c r="C41" t="s">
-        <v>426</v>
+        <v>422</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G41" t="s">
         <v>26</v>
@@ -5919,7 +5929,7 @@
         <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K41" t="s">
         <v>30</v>
@@ -5928,7 +5938,7 @@
         <v>31</v>
       </c>
       <c r="M41" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N41" t="s">
         <v>33</v>
@@ -5940,7 +5950,7 @@
         <v>76</v>
       </c>
       <c r="R41" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="S41" t="s">
         <v>36</v>
@@ -5967,30 +5977,30 @@
         <v>37</v>
       </c>
       <c r="AD41" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AJ41" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AK41" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B42" t="s">
-        <v>435</v>
-      </c>
-      <c r="C42" t="s">
-        <v>436</v>
+        <v>432</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G42" t="s">
         <v>26</v>
@@ -5999,7 +6009,7 @@
         <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K42" t="s">
         <v>30</v>
@@ -6008,7 +6018,7 @@
         <v>143</v>
       </c>
       <c r="M42" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N42" t="s">
         <v>33</v>
@@ -6017,7 +6027,7 @@
         <v>34</v>
       </c>
       <c r="Q42" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="S42" t="s">
         <v>36</v>
@@ -6041,30 +6051,30 @@
         <v>39</v>
       </c>
       <c r="AD42" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AJ42" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AK42" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B43" t="s">
-        <v>444</v>
-      </c>
-      <c r="C43" t="s">
-        <v>445</v>
+        <v>441</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G43" t="s">
         <v>26</v>
@@ -6073,7 +6083,7 @@
         <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K43" t="s">
         <v>30</v>
@@ -6082,7 +6092,7 @@
         <v>143</v>
       </c>
       <c r="M43" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N43" t="s">
         <v>33</v>
@@ -6091,7 +6101,7 @@
         <v>34</v>
       </c>
       <c r="Q43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S43" t="s">
         <v>36</v>
@@ -6115,27 +6125,27 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AK43" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B44" t="s">
-        <v>450</v>
-      </c>
-      <c r="C44" t="s">
-        <v>451</v>
+        <v>447</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G44" t="s">
         <v>26</v>
@@ -6144,7 +6154,7 @@
         <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K44" t="s">
         <v>30</v>
@@ -6153,7 +6163,7 @@
         <v>143</v>
       </c>
       <c r="M44" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N44" t="s">
         <v>33</v>
@@ -6186,27 +6196,27 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AK44" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B45" t="s">
-        <v>456</v>
-      </c>
-      <c r="C45" t="s">
-        <v>457</v>
+        <v>453</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>454</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
@@ -6215,7 +6225,7 @@
         <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K45" t="s">
         <v>30</v>
@@ -6224,7 +6234,7 @@
         <v>143</v>
       </c>
       <c r="M45" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N45" t="s">
         <v>33</v>
@@ -6257,30 +6267,30 @@
         <v>39</v>
       </c>
       <c r="AD45" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AJ45" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AK45" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B46" t="s">
-        <v>463</v>
-      </c>
-      <c r="C46" t="s">
-        <v>464</v>
+        <v>460</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G46" t="s">
         <v>26</v>
@@ -6289,16 +6299,16 @@
         <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K46" t="s">
         <v>30</v>
       </c>
       <c r="L46" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M46" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="N46" t="s">
         <v>33</v>
@@ -6328,36 +6338,36 @@
         <v>41</v>
       </c>
       <c r="AG46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AH46" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AI46" t="s">
         <v>111</v>
       </c>
       <c r="AJ46" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AK46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B47" t="s">
-        <v>473</v>
-      </c>
-      <c r="C47" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G47" t="s">
         <v>26</v>
@@ -6366,7 +6376,7 @@
         <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K47" t="s">
         <v>30</v>
@@ -6375,7 +6385,7 @@
         <v>143</v>
       </c>
       <c r="M47" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N47" t="s">
         <v>33</v>
@@ -6384,7 +6394,7 @@
         <v>34</v>
       </c>
       <c r="Q47" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S47" t="s">
         <v>36</v>
@@ -6405,7 +6415,7 @@
         <v>26</v>
       </c>
       <c r="Y47" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Z47" t="s">
         <v>41</v>
@@ -6414,30 +6424,30 @@
         <v>39</v>
       </c>
       <c r="AD47" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AJ47" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AK47" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B48" t="s">
-        <v>483</v>
-      </c>
-      <c r="C48" t="s">
-        <v>484</v>
+        <v>480</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>481</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G48" t="s">
         <v>26</v>
@@ -6446,10 +6456,10 @@
         <v>27</v>
       </c>
       <c r="I48" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J48" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K48" t="s">
         <v>30</v>
@@ -6458,7 +6468,7 @@
         <v>107</v>
       </c>
       <c r="M48" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="N48" t="s">
         <v>33</v>
@@ -6488,30 +6498,30 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AJ48" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AK48" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B49" t="s">
-        <v>493</v>
-      </c>
-      <c r="C49" t="s">
-        <v>494</v>
+        <v>490</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G49" t="s">
         <v>40</v>
@@ -6526,7 +6536,7 @@
         <v>143</v>
       </c>
       <c r="M49" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="N49" t="s">
         <v>33</v>
@@ -6556,30 +6566,30 @@
         <v>39</v>
       </c>
       <c r="AD49" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AJ49" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AK49" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B50" t="s">
-        <v>500</v>
-      </c>
-      <c r="C50" t="s">
-        <v>501</v>
+        <v>497</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G50" t="s">
         <v>40</v>
@@ -6588,19 +6598,19 @@
         <v>27</v>
       </c>
       <c r="I50" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J50" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K50" t="s">
         <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M50" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="N50" t="s">
         <v>33</v>
@@ -6627,36 +6637,36 @@
         <v>41</v>
       </c>
       <c r="AG50" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AH50" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AI50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AJ50" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AK50" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B51" t="s">
-        <v>509</v>
-      </c>
-      <c r="C51" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G51" t="s">
         <v>26</v>
@@ -6665,7 +6675,7 @@
         <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K51" t="s">
         <v>60</v>
@@ -6674,7 +6684,7 @@
         <v>143</v>
       </c>
       <c r="M51" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="N51" t="s">
         <v>33</v>
@@ -6683,10 +6693,10 @@
         <v>34</v>
       </c>
       <c r="Q51" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="R51" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="S51" t="s">
         <v>36</v>
@@ -6710,27 +6720,27 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AK51" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B52" t="s">
-        <v>518</v>
-      </c>
-      <c r="C52" t="s">
-        <v>519</v>
+        <v>515</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>516</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G52" t="s">
         <v>26</v>
@@ -6739,7 +6749,7 @@
         <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K52" t="s">
         <v>30</v>
@@ -6748,7 +6758,7 @@
         <v>143</v>
       </c>
       <c r="M52" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N52" t="s">
         <v>33</v>
@@ -6757,10 +6767,10 @@
         <v>34</v>
       </c>
       <c r="Q52" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="R52" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="S52" t="s">
         <v>36</v>
@@ -6784,27 +6794,27 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AK52" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B53" t="s">
-        <v>525</v>
-      </c>
-      <c r="C53" t="s">
-        <v>526</v>
+        <v>522</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G53" t="s">
         <v>26</v>
@@ -6816,7 +6826,7 @@
         <v>143</v>
       </c>
       <c r="M53" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="N53" t="s">
         <v>33</v>
@@ -6849,30 +6859,30 @@
         <v>39</v>
       </c>
       <c r="AD53" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AJ53" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AK53" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B54" t="s">
-        <v>531</v>
-      </c>
-      <c r="C54" t="s">
-        <v>532</v>
+        <v>528</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G54" t="s">
         <v>40</v>
@@ -6881,10 +6891,10 @@
         <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J54" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K54" t="s">
         <v>30</v>
@@ -6905,7 +6915,7 @@
         <v>132</v>
       </c>
       <c r="R54" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="S54" t="s">
         <v>36</v>
@@ -6929,30 +6939,30 @@
         <v>39</v>
       </c>
       <c r="AD54" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AJ54" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AK54" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B55" t="s">
-        <v>540</v>
-      </c>
-      <c r="C55" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G55" t="s">
         <v>26</v>
@@ -6961,10 +6971,10 @@
         <v>27</v>
       </c>
       <c r="I55" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J55" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="K55" t="s">
         <v>30</v>
@@ -6973,7 +6983,7 @@
         <v>143</v>
       </c>
       <c r="M55" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="N55" t="s">
         <v>33</v>
@@ -6982,10 +6992,10 @@
         <v>34</v>
       </c>
       <c r="Q55" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="R55" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="S55" t="s">
         <v>39</v>
@@ -7006,27 +7016,27 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AK55" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B56" t="s">
-        <v>550</v>
-      </c>
-      <c r="C56" t="s">
-        <v>551</v>
+        <v>547</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>548</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G56" t="s">
         <v>26</v>
@@ -7035,10 +7045,10 @@
         <v>27</v>
       </c>
       <c r="I56" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J56" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K56" t="s">
         <v>30</v>
@@ -7047,7 +7057,7 @@
         <v>143</v>
       </c>
       <c r="M56" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="N56" t="s">
         <v>33</v>
@@ -7059,7 +7069,7 @@
         <v>132</v>
       </c>
       <c r="R56" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="S56" t="s">
         <v>36</v>
@@ -7080,27 +7090,27 @@
         <v>41</v>
       </c>
       <c r="AJ56" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AK56" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B57" t="s">
-        <v>558</v>
-      </c>
-      <c r="C57" t="s">
-        <v>559</v>
+        <v>555</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
       </c>
       <c r="F57" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G57" t="s">
         <v>26</v>
@@ -7109,10 +7119,10 @@
         <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J57" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K57" t="s">
         <v>30</v>
@@ -7121,7 +7131,7 @@
         <v>143</v>
       </c>
       <c r="M57" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="N57" t="s">
         <v>33</v>
@@ -7130,10 +7140,10 @@
         <v>52</v>
       </c>
       <c r="Q57" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="R57" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="S57" t="s">
         <v>36</v>
@@ -7157,27 +7167,27 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AK57" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B58" t="s">
-        <v>566</v>
-      </c>
-      <c r="C58" t="s">
-        <v>567</v>
+        <v>563</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G58" t="s">
         <v>26</v>
@@ -7186,7 +7196,7 @@
         <v>27</v>
       </c>
       <c r="I58" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="K58" t="s">
         <v>30</v>
@@ -7195,7 +7205,7 @@
         <v>143</v>
       </c>
       <c r="M58" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="N58" t="s">
         <v>33</v>
@@ -7207,7 +7217,7 @@
         <v>191</v>
       </c>
       <c r="R58" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="S58" t="s">
         <v>36</v>
@@ -7228,39 +7238,39 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AK58" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B59" t="s">
-        <v>573</v>
-      </c>
-      <c r="C59" t="s">
-        <v>574</v>
+        <v>570</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G59" t="s">
         <v>26</v>
       </c>
       <c r="H59" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I59" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J59" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K59" t="s">
         <v>30</v>
@@ -7269,7 +7279,7 @@
         <v>31</v>
       </c>
       <c r="M59" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="N59" t="s">
         <v>33</v>
@@ -7278,10 +7288,10 @@
         <v>52</v>
       </c>
       <c r="Q59" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="R59" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="S59" t="s">
         <v>36</v>
@@ -7302,7 +7312,7 @@
         <v>26</v>
       </c>
       <c r="Y59" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Z59" t="s">
         <v>41</v>
@@ -7311,51 +7321,51 @@
         <v>37</v>
       </c>
       <c r="AD59" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AJ59" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AK59" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B60" t="s">
-        <v>587</v>
-      </c>
-      <c r="C60" t="s">
-        <v>588</v>
+        <v>584</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>585</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G60" t="s">
         <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I60" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="J60" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K60" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L60" t="s">
         <v>31</v>
       </c>
       <c r="M60" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="N60" t="s">
         <v>33</v>
@@ -7364,7 +7374,7 @@
         <v>52</v>
       </c>
       <c r="Q60" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="S60" t="s">
         <v>36</v>
@@ -7382,7 +7392,7 @@
         <v>26</v>
       </c>
       <c r="Y60" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="Z60" t="s">
         <v>41</v>
@@ -7391,30 +7401,30 @@
         <v>39</v>
       </c>
       <c r="AD60" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AJ60" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AK60" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B61" t="s">
-        <v>599</v>
-      </c>
-      <c r="C61" t="s">
-        <v>600</v>
+        <v>596</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>597</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G61" t="s">
         <v>26</v>
@@ -7423,13 +7433,13 @@
         <v>27</v>
       </c>
       <c r="I61" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="J61" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="K61" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L61" t="s">
         <v>31</v>
@@ -7441,7 +7451,7 @@
         <v>155</v>
       </c>
       <c r="O61" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="P61" t="s">
         <v>52</v>
@@ -7465,27 +7475,27 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AK61" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B62" t="s">
-        <v>607</v>
-      </c>
-      <c r="C62" t="s">
-        <v>608</v>
+        <v>604</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
@@ -7494,10 +7504,10 @@
         <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J62" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="K62" t="s">
         <v>30</v>
@@ -7512,10 +7522,10 @@
         <v>33</v>
       </c>
       <c r="P62" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Q62" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="S62" t="s">
         <v>36</v>
@@ -7533,7 +7543,7 @@
         <v>26</v>
       </c>
       <c r="Y62" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Z62" t="s">
         <v>41</v>
@@ -7542,57 +7552,57 @@
         <v>39</v>
       </c>
       <c r="AD62" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AJ62" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AK62" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B63" t="s">
-        <v>618</v>
-      </c>
-      <c r="C63" t="s">
-        <v>619</v>
+        <v>615</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G63" t="s">
         <v>26</v>
       </c>
       <c r="H63" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I63" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="J63" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="K63" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L63" t="s">
         <v>31</v>
       </c>
       <c r="M63" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="N63" t="s">
         <v>33</v>
       </c>
       <c r="P63" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Q63" t="s">
         <v>86</v>
@@ -7616,7 +7626,7 @@
         <v>26</v>
       </c>
       <c r="Y63" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="Z63" t="s">
         <v>41</v>
@@ -7625,30 +7635,30 @@
         <v>37</v>
       </c>
       <c r="AD63" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AJ63" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AK63" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B64" t="s">
-        <v>626</v>
-      </c>
-      <c r="C64" t="s">
-        <v>627</v>
+        <v>623</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>624</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G64" t="s">
         <v>26</v>
@@ -7657,10 +7667,10 @@
         <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J64" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K64" t="s">
         <v>30</v>
@@ -7669,16 +7679,16 @@
         <v>31</v>
       </c>
       <c r="M64" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N64" t="s">
         <v>33</v>
       </c>
       <c r="Q64" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="R64" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="S64" t="s">
         <v>36</v>
@@ -7696,13 +7706,13 @@
         <v>26</v>
       </c>
       <c r="Y64" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Z64" t="s">
         <v>120</v>
       </c>
       <c r="AA64" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AB64" t="s">
         <v>89</v>
@@ -7711,30 +7721,30 @@
         <v>37</v>
       </c>
       <c r="AD64" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AJ64" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AK64" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B65" t="s">
-        <v>638</v>
-      </c>
-      <c r="C65" t="s">
-        <v>639</v>
+        <v>635</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>636</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G65" t="s">
         <v>26</v>
@@ -7743,7 +7753,7 @@
         <v>27</v>
       </c>
       <c r="I65" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K65" t="s">
         <v>30</v>
@@ -7752,19 +7762,19 @@
         <v>143</v>
       </c>
       <c r="M65" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="N65" t="s">
         <v>33</v>
       </c>
       <c r="P65" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Q65" t="s">
         <v>191</v>
       </c>
       <c r="R65" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="S65" t="s">
         <v>36</v>
@@ -7782,7 +7792,7 @@
         <v>26</v>
       </c>
       <c r="Y65" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Z65" t="s">
         <v>41</v>
@@ -7791,30 +7801,30 @@
         <v>39</v>
       </c>
       <c r="AD65" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AJ65" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AK65" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B66" t="s">
-        <v>648</v>
-      </c>
-      <c r="C66" t="s">
-        <v>649</v>
+        <v>645</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>646</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G66" t="s">
         <v>26</v>
@@ -7823,7 +7833,7 @@
         <v>27</v>
       </c>
       <c r="I66" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K66" t="s">
         <v>30</v>
@@ -7832,13 +7842,13 @@
         <v>143</v>
       </c>
       <c r="M66" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="N66" t="s">
         <v>33</v>
       </c>
       <c r="P66" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Q66" t="s">
         <v>157</v>
@@ -7865,27 +7875,27 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AK66" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B67" t="s">
-        <v>655</v>
-      </c>
-      <c r="C67" t="s">
-        <v>656</v>
+        <v>652</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>653</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G67" t="s">
         <v>26</v>
@@ -7894,7 +7904,7 @@
         <v>27</v>
       </c>
       <c r="I67" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K67" t="s">
         <v>30</v>
@@ -7903,13 +7913,13 @@
         <v>130</v>
       </c>
       <c r="M67" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="N67" t="s">
         <v>33</v>
       </c>
       <c r="O67" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="P67" t="s">
         <v>52</v>
@@ -7939,51 +7949,51 @@
         <v>39</v>
       </c>
       <c r="AD67" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AJ67" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AK67" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B68" t="s">
-        <v>663</v>
-      </c>
-      <c r="C68" t="s">
-        <v>664</v>
+        <v>660</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>661</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G68" t="s">
         <v>40</v>
       </c>
       <c r="H68" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I68" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J68" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K68" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L68" t="s">
         <v>130</v>
       </c>
       <c r="M68" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N68" t="s">
         <v>33</v>
@@ -7992,7 +8002,7 @@
         <v>52</v>
       </c>
       <c r="Q68" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S68" t="s">
         <v>36</v>
@@ -8010,60 +8020,60 @@
         <v>40</v>
       </c>
       <c r="AA68" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AG68" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AH68" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AI68" t="s">
         <v>111</v>
       </c>
       <c r="AJ68" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AK68" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B69" t="s">
-        <v>673</v>
-      </c>
-      <c r="C69" t="s">
-        <v>674</v>
+        <v>670</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>671</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G69" t="s">
         <v>26</v>
       </c>
       <c r="H69" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I69" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="J69" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K69" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L69" t="s">
         <v>130</v>
       </c>
       <c r="M69" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="N69" t="s">
         <v>33</v>
@@ -8072,7 +8082,7 @@
         <v>52</v>
       </c>
       <c r="Q69" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="S69" t="s">
         <v>36</v>
@@ -8090,57 +8100,57 @@
         <v>40</v>
       </c>
       <c r="AA69" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AG69" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AI69" t="s">
         <v>111</v>
       </c>
       <c r="AJ69" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AK69" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B70" t="s">
-        <v>680</v>
-      </c>
-      <c r="C70" t="s">
-        <v>681</v>
+        <v>677</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>678</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G70" t="s">
         <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I70" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J70" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K70" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L70" t="s">
         <v>107</v>
       </c>
       <c r="M70" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="N70" t="s">
         <v>33</v>
@@ -8149,10 +8159,10 @@
         <v>34</v>
       </c>
       <c r="Q70" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R70" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="S70" t="s">
         <v>36</v>
@@ -8173,51 +8183,51 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ70" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="AK70" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B71" t="s">
-        <v>688</v>
-      </c>
-      <c r="C71" t="s">
-        <v>689</v>
+        <v>685</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>686</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
       </c>
       <c r="F71" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
       </c>
       <c r="H71" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I71" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J71" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K71" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L71" t="s">
         <v>143</v>
       </c>
       <c r="M71" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="N71" t="s">
         <v>33</v>
@@ -8229,7 +8239,7 @@
         <v>132</v>
       </c>
       <c r="R71" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="S71" t="s">
         <v>39</v>
@@ -8250,48 +8260,48 @@
         <v>41</v>
       </c>
       <c r="AJ71" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="AK71" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B72" t="s">
-        <v>696</v>
-      </c>
-      <c r="C72" t="s">
-        <v>697</v>
+        <v>693</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>694</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
       </c>
       <c r="F72" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G72" t="s">
         <v>26</v>
       </c>
       <c r="H72" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I72" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="J72" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K72" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L72" t="s">
         <v>143</v>
       </c>
       <c r="M72" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="N72" t="s">
         <v>33</v>
@@ -8303,7 +8313,7 @@
         <v>132</v>
       </c>
       <c r="R72" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="S72" t="s">
         <v>39</v>
@@ -8324,48 +8334,48 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AK72" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B73" t="s">
-        <v>704</v>
-      </c>
-      <c r="C73" t="s">
-        <v>705</v>
+        <v>701</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G73" t="s">
         <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I73" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J73" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K73" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L73" t="s">
         <v>31</v>
       </c>
       <c r="M73" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N73" t="s">
         <v>33</v>
@@ -8374,7 +8384,7 @@
         <v>52</v>
       </c>
       <c r="Q73" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="S73" t="s">
         <v>39</v>
@@ -8401,51 +8411,51 @@
         <v>37</v>
       </c>
       <c r="AD73" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AJ73" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="AK73" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B74" t="s">
-        <v>712</v>
-      </c>
-      <c r="C74" t="s">
-        <v>713</v>
+        <v>709</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>710</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G74" t="s">
         <v>26</v>
       </c>
       <c r="H74" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I74" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J74" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K74" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L74" t="s">
         <v>31</v>
       </c>
       <c r="M74" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="N74" t="s">
         <v>33</v>
@@ -8454,7 +8464,7 @@
         <v>34</v>
       </c>
       <c r="Q74" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="S74" t="s">
         <v>39</v>
@@ -8481,51 +8491,51 @@
         <v>37</v>
       </c>
       <c r="AD74" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AJ74" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="AK74" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B75" t="s">
-        <v>722</v>
-      </c>
-      <c r="C75" t="s">
-        <v>723</v>
+        <v>719</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G75" t="s">
         <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I75" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="J75" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="K75" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L75" t="s">
         <v>31</v>
       </c>
       <c r="M75" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N75" t="s">
         <v>33</v>
@@ -8534,7 +8544,7 @@
         <v>52</v>
       </c>
       <c r="Q75" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="S75" t="s">
         <v>39</v>
@@ -8561,51 +8571,51 @@
         <v>39</v>
       </c>
       <c r="AD75" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AJ75" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="AK75" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B76" t="s">
-        <v>730</v>
-      </c>
-      <c r="C76" t="s">
-        <v>731</v>
+        <v>727</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>728</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G76" t="s">
         <v>26</v>
       </c>
       <c r="H76" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I76" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="J76" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="K76" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L76" t="s">
         <v>31</v>
       </c>
       <c r="M76" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="N76" t="s">
         <v>33</v>
@@ -8614,7 +8624,7 @@
         <v>52</v>
       </c>
       <c r="Q76" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="S76" t="s">
         <v>39</v>
@@ -8644,48 +8654,48 @@
         <v>67</v>
       </c>
       <c r="AJ76" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AK76" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B77" t="s">
-        <v>738</v>
-      </c>
-      <c r="C77" t="s">
-        <v>739</v>
+        <v>735</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>736</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G77" t="s">
         <v>26</v>
       </c>
       <c r="H77" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I77" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J77" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="K77" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L77" t="s">
         <v>31</v>
       </c>
       <c r="M77" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="N77" t="s">
         <v>33</v>
@@ -8721,13 +8731,13 @@
         <v>39</v>
       </c>
       <c r="AD77" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="AJ77" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AK77" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -8748,19 +8758,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -8769,6 +8779,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="996edba2-ec33-4a2e-8368-78d9e900b9f2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5210dd66-3e32-4fad-90ef-2e158a04e990" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8777,7 +8798,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038073657E5DB2D47AAD91621692220EF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="afb3daf45c20648a38b84a160d60719d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="996edba2-ec33-4a2e-8368-78d9e900b9f2" xmlns:ns3="5210dd66-3e32-4fad-90ef-2e158a04e990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b6a9de8e624e0e032ad798c972482c2" ns2:_="" ns3:_="">
     <xsd:import namespace="996edba2-ec33-4a2e-8368-78d9e900b9f2"/>
@@ -9000,18 +9021,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="996edba2-ec33-4a2e-8368-78d9e900b9f2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5210dd66-3e32-4fad-90ef-2e158a04e990" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2891B0B-F162-4729-8896-17DE61CC0D42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="996edba2-ec33-4a2e-8368-78d9e900b9f2"/>
+    <ds:schemaRef ds:uri="5210dd66-3e32-4fad-90ef-2e158a04e990"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7706BB81-98AA-4FB4-8C99-0F6A8FF3C263}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9019,7 +9040,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D56BCDA-5D9F-41BC-B157-7CD255220F5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9036,15 +9057,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2891B0B-F162-4729-8896-17DE61CC0D42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="996edba2-ec33-4a2e-8368-78d9e900b9f2"/>
-    <ds:schemaRef ds:uri="5210dd66-3e32-4fad-90ef-2e158a04e990"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>